--- a/assignment/static/students.xlsx
+++ b/assignment/static/students.xlsx
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H94" activeCellId="0" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -1075,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -1092,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -1109,7 +1109,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1126,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -1143,7 +1143,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
@@ -1160,7 +1160,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -1177,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
@@ -1194,7 +1194,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -1211,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -1228,7 +1228,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -1245,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -1262,7 +1262,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>6</v>
@@ -1279,7 +1279,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>6</v>
@@ -1296,7 +1296,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>6</v>
@@ -1313,7 +1313,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
@@ -1330,7 +1330,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>6</v>
@@ -1347,7 +1347,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>6</v>
@@ -1364,7 +1364,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>6</v>
@@ -1381,7 +1381,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>6</v>
@@ -1398,7 +1398,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>6</v>
@@ -1415,7 +1415,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>6</v>
@@ -1432,7 +1432,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>6</v>
@@ -1449,7 +1449,7 @@
         <v>51</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>6</v>
@@ -1466,7 +1466,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>6</v>
@@ -1483,7 +1483,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>6</v>
@@ -1500,7 +1500,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>6</v>
@@ -1517,7 +1517,7 @@
         <v>59</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>6</v>
@@ -1534,7 +1534,7 @@
         <v>61</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>6</v>
@@ -1551,7 +1551,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>6</v>
@@ -1568,7 +1568,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>6</v>
@@ -1585,7 +1585,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>6</v>
@@ -1602,7 +1602,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>6</v>
@@ -1619,7 +1619,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>6</v>
@@ -1636,7 +1636,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>6</v>
@@ -1653,7 +1653,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>6</v>
@@ -1670,7 +1670,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>6</v>
@@ -1687,7 +1687,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
@@ -1704,7 +1704,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>6</v>
@@ -1721,7 +1721,7 @@
         <v>82</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>6</v>
@@ -1738,7 +1738,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>6</v>
@@ -1755,7 +1755,7 @@
         <v>86</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>6</v>
@@ -1772,7 +1772,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>6</v>
@@ -1789,7 +1789,7 @@
         <v>90</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>6</v>
@@ -1806,7 +1806,7 @@
         <v>92</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>6</v>
@@ -1823,7 +1823,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>6</v>
@@ -1840,7 +1840,7 @@
         <v>95</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>6</v>
@@ -1857,7 +1857,7 @@
         <v>97</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>6</v>
@@ -1874,7 +1874,7 @@
         <v>98</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>6</v>
@@ -1891,7 +1891,7 @@
         <v>100</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>6</v>
@@ -1908,7 +1908,7 @@
         <v>102</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>6</v>
@@ -1925,7 +1925,7 @@
         <v>104</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>6</v>
@@ -1942,7 +1942,7 @@
         <v>106</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>107</v>
@@ -1959,7 +1959,7 @@
         <v>109</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>107</v>
@@ -1976,7 +1976,7 @@
         <v>111</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>107</v>
@@ -1993,7 +1993,7 @@
         <v>113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>107</v>
@@ -2010,7 +2010,7 @@
         <v>115</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>107</v>
@@ -2027,7 +2027,7 @@
         <v>117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>107</v>
@@ -2044,7 +2044,7 @@
         <v>119</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>107</v>
@@ -2061,7 +2061,7 @@
         <v>121</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>107</v>
@@ -2078,7 +2078,7 @@
         <v>123</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>107</v>
@@ -2095,7 +2095,7 @@
         <v>125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>107</v>
@@ -2112,7 +2112,7 @@
         <v>127</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>107</v>
@@ -2129,7 +2129,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>107</v>
@@ -2146,7 +2146,7 @@
         <v>130</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>107</v>
@@ -2163,7 +2163,7 @@
         <v>132</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>107</v>
@@ -2180,7 +2180,7 @@
         <v>134</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>107</v>
@@ -2197,7 +2197,7 @@
         <v>136</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>107</v>
@@ -2214,7 +2214,7 @@
         <v>138</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>107</v>
@@ -2231,7 +2231,7 @@
         <v>140</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>107</v>
@@ -2248,7 +2248,7 @@
         <v>142</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>107</v>
@@ -2265,7 +2265,7 @@
         <v>144</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>107</v>
@@ -2282,7 +2282,7 @@
         <v>146</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>107</v>
@@ -2299,7 +2299,7 @@
         <v>148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>107</v>
@@ -2316,7 +2316,7 @@
         <v>150</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>107</v>
@@ -2333,7 +2333,7 @@
         <v>152</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>107</v>
@@ -2350,7 +2350,7 @@
         <v>154</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>107</v>
@@ -2367,7 +2367,7 @@
         <v>156</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>107</v>
@@ -2384,7 +2384,7 @@
         <v>158</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>107</v>
@@ -2401,7 +2401,7 @@
         <v>160</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>107</v>
@@ -2418,7 +2418,7 @@
         <v>162</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>107</v>
@@ -2435,7 +2435,7 @@
         <v>164</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>107</v>
@@ -2452,7 +2452,7 @@
         <v>166</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>107</v>
@@ -2469,7 +2469,7 @@
         <v>168</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>107</v>
@@ -2486,7 +2486,7 @@
         <v>170</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>107</v>
@@ -2503,7 +2503,7 @@
         <v>172</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>107</v>
@@ -2520,7 +2520,7 @@
         <v>174</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>107</v>
@@ -2537,7 +2537,7 @@
         <v>176</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>107</v>
@@ -2554,7 +2554,7 @@
         <v>178</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>107</v>
@@ -2571,7 +2571,7 @@
         <v>180</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>107</v>
@@ -2588,7 +2588,7 @@
         <v>182</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>107</v>
@@ -2605,7 +2605,7 @@
         <v>184</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>107</v>
@@ -2622,7 +2622,7 @@
         <v>186</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>107</v>
@@ -2639,7 +2639,7 @@
         <v>188</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>107</v>
@@ -2656,7 +2656,7 @@
         <v>190</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>107</v>
